--- a/data/trans_dic/P25D_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001545967445423306</v>
+        <v>0.001530436844444229</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0005245122811690427</v>
+        <v>0.0005298299454152595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001304266051726792</v>
+        <v>0.001645257094733877</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01895755898825626</v>
+        <v>0.0207390437345883</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.005605987126014619</v>
+        <v>0.006161159895006027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01022497768568332</v>
+        <v>0.009726593429280138</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.00800820236977774</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.008378216372991906</v>
+        <v>0.008378216372991907</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.008195063129874669</v>
+        <v>0.008195063129874667</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003378061232986152</v>
+        <v>0.003321660551543595</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003861203625713133</v>
+        <v>0.004124161362852544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004878364056803655</v>
+        <v>0.004985283124828262</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01640343689774481</v>
+        <v>0.01769371372812034</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01666773940330517</v>
+        <v>0.01833963169538311</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01403400768557939</v>
+        <v>0.01379359793128294</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.0116700549335872</v>
+        <v>0.01167005493358719</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.009950806590798247</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00443902894287442</v>
+        <v>0.00452703488811831</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00413104480574882</v>
+        <v>0.004100180003195173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005715514153536592</v>
+        <v>0.005555557929654265</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02706623103535589</v>
+        <v>0.02898869005373761</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02173103605708691</v>
+        <v>0.02036183105057796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01914416007458972</v>
+        <v>0.01986853208870328</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.0206196326690336</v>
+        <v>0.02061963266903361</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.006601392277711634</v>
+        <v>0.006601392277711635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.01317000873174617</v>
+        <v>0.01317000873174616</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01115982979997687</v>
+        <v>0.0112692132713215</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003191600520878424</v>
+        <v>0.00351564859998056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008600098550482395</v>
+        <v>0.008535753842846468</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03640546654851033</v>
+        <v>0.0357763016595869</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01143239740515288</v>
+        <v>0.01137955397883837</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02089734924474599</v>
+        <v>0.02230061589541712</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.01209726462553055</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.006958968628912842</v>
+        <v>0.006958968628912843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.009455079850977367</v>
+        <v>0.00945507985097737</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008113522734029804</v>
+        <v>0.008233774452440884</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004741705413575634</v>
+        <v>0.004617860481097255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007409341588647454</v>
+        <v>0.007001526036621513</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0182918074504673</v>
+        <v>0.01766016724044937</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01015542746501573</v>
+        <v>0.01004805443916405</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01246733929657033</v>
+        <v>0.0123749508699859</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1851</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13050</v>
+        <v>14276</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4098</v>
+        <v>4504</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14514</v>
+        <v>13806</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3543</v>
+        <v>3484</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4132</v>
+        <v>4413</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10338</v>
+        <v>10564</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17206</v>
+        <v>18559</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17837</v>
+        <v>19626</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29739</v>
+        <v>29230</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3560</v>
+        <v>3630</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3355</v>
+        <v>3330</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9226</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21704</v>
+        <v>23246</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17651</v>
+        <v>16539</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30902</v>
+        <v>32071</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10968</v>
+        <v>11075</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3557</v>
+        <v>3919</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18038</v>
+        <v>17903</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35779</v>
+        <v>35160</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12743</v>
+        <v>12684</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>43830</v>
+        <v>46773</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>28576</v>
+        <v>28999</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17677</v>
+        <v>17216</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>53718</v>
+        <v>50761</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>64423</v>
+        <v>62198</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37860</v>
+        <v>37460</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>90389</v>
+        <v>89719</v>
       </c>
     </row>
     <row r="24">
